--- a/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_1_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.32691105534499</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.4500705570606084</v>
+        <v>-0.4500705570606112</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.371129148457861</v>
@@ -664,7 +664,7 @@
         <v>-1.024430020597658</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.1665460653331702</v>
+        <v>-0.1665460653331674</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.402954453683599</v>
+        <v>-6.304974728785516</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.02334194089039</v>
+        <v>-4.658273899055485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.268484242917474</v>
+        <v>-3.735306121493827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.416525228884864</v>
+        <v>3.131914522321354</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.995691898225042</v>
+        <v>-4.623354960846246</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.605699470099252</v>
+        <v>-3.756152957537163</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8110992352161456</v>
+        <v>-0.5406636747288954</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.878039683096642</v>
+        <v>-3.940519978037194</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.907603283905801</v>
+        <v>-2.830891608887567</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8379752467729903</v>
+        <v>0.816167327150187</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.402294461219523</v>
+        <v>2.360609786077236</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.24532901714913</v>
+        <v>3.366860955094038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.89588631528556</v>
+        <v>11.61785714774919</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.324604496774284</v>
+        <v>3.707264824810406</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.617011041928572</v>
+        <v>3.744491172561777</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.337034550344749</v>
+        <v>4.945222068301184</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.772672816908947</v>
+        <v>1.636995748793693</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.532162572925217</v>
+        <v>2.379760749535643</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.08628420682200563</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.02926645374871505</v>
+        <v>-0.02926645374871523</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3962960774999391</v>
@@ -769,7 +769,7 @@
         <v>-0.06032226152447188</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.009806853671701388</v>
+        <v>-0.009806853671701225</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3682526406238179</v>
+        <v>-0.3685692710293193</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2961890440714215</v>
+        <v>-0.2747228215373096</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2602992758494829</v>
+        <v>-0.2221242010794202</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.09716412662498701</v>
+        <v>0.1511154304538115</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2457444257357794</v>
+        <v>-0.2301816114627232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1708509970609661</v>
+        <v>-0.1766052001231483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04427763646203309</v>
+        <v>-0.02808098473704054</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2040817877356703</v>
+        <v>-0.2088184426961237</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1590063157855179</v>
+        <v>-0.1542337405241187</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.064010593092101</v>
+        <v>0.05693157194943212</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1794572727554782</v>
+        <v>0.1784169459033694</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2410703806055851</v>
+        <v>0.2539522869117148</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6937257161791412</v>
+        <v>0.6983041283104935</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1995257526371792</v>
+        <v>0.2226074224488601</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2094488174776627</v>
+        <v>0.2318052616887289</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.340263181570984</v>
+        <v>0.3229172573342018</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1170978359091288</v>
+        <v>0.109945877944982</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1598142699065883</v>
+        <v>0.1517150776848495</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-8.492504456279242</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.825354410961475</v>
+        <v>-5.825354410961473</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.9667402879722009</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.14405951654503</v>
+        <v>-5.262148359554511</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.88705123866149</v>
+        <v>-10.71122838418008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.69052416277863</v>
+        <v>-10.10628252997185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.537392409948178</v>
+        <v>-3.928120957698521</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.20692564974128</v>
+        <v>-12.1773401274845</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.596247424581165</v>
+        <v>-9.360167974932486</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.239200681910993</v>
+        <v>-3.647507167414162</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.25616120707845</v>
+        <v>-10.26096909100594</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.944269728882579</v>
+        <v>-8.834081581723918</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.882131490443413</v>
+        <v>1.956323954499072</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-4.485667503492526</v>
+        <v>-4.396861923926343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.377161015828335</v>
+        <v>-4.14210762142977</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.26061048224169</v>
+        <v>3.820996184365822</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.474651215004554</v>
+        <v>-4.854593772803346</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.513819818048328</v>
+        <v>-2.501052141287191</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.676345614862705</v>
+        <v>1.946326603286261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-5.559408936289079</v>
+        <v>-5.303551145820664</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.393728034267266</v>
+        <v>-4.154766544419575</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.3569020390909977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2448136328221346</v>
+        <v>-0.2448136328221345</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.04641356173170513</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2654325925710212</v>
+        <v>-0.2622148988630077</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5477386419143062</v>
+        <v>-0.5445764494221895</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5339295492175654</v>
+        <v>-0.520342555632695</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1756082796276683</v>
+        <v>-0.1554847899001296</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4682139060206708</v>
+        <v>-0.4699401096384542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3642143187937467</v>
+        <v>-0.3601812808098087</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1493937600911602</v>
+        <v>-0.1651470586762638</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4650881715798523</v>
+        <v>-0.4674298151801938</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4034617183565279</v>
+        <v>-0.4009339756867983</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1132842691336674</v>
+        <v>0.120270787736533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2757899712981453</v>
+        <v>-0.2645448189858627</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.2663982348645988</v>
+        <v>-0.2621025252021772</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1493805732450759</v>
+        <v>0.1744168635163164</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2060907432638157</v>
+        <v>-0.218752511945748</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.116357420910166</v>
+        <v>-0.113482844681904</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08775796201032919</v>
+        <v>0.1013346893155775</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2855344869137332</v>
+        <v>-0.2740391712310117</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2248670732209837</v>
+        <v>-0.2152503519165561</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-6.677024330347779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.08581597564074</v>
+        <v>-3.085815975640746</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.420169360323271</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.531881122282789</v>
+        <v>-6.208237052022479</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.28442746021856</v>
+        <v>-10.27252494404495</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.919965131194041</v>
+        <v>-7.106192023796531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.118920765834863</v>
+        <v>-2.272347108665337</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.77412882462454</v>
+        <v>-10.65934486741105</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-8.336406432523043</v>
+        <v>-8.51262893087968</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.654043411037466</v>
+        <v>-2.800492383874272</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.089170833859209</v>
+        <v>-9.604480135071466</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-6.74479090664075</v>
+        <v>-6.437655845631792</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.99471091899948</v>
+        <v>1.5595279215902</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.044023294022486</v>
+        <v>-2.79129708830716</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.07275340588549</v>
+        <v>0.8503531949630444</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.998414388489933</v>
+        <v>6.608237585072745</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.381723783228892</v>
+        <v>-2.559532319356436</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.2633706475724015</v>
+        <v>-0.5012843969314429</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.077608606015899</v>
+        <v>3.077390979893079</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.731969815899995</v>
+        <v>-3.789650912778112</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-0.9551629944091927</v>
+        <v>-0.671655651930729</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3898616653610458</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1801762725040659</v>
+        <v>-0.1801762725040662</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1048457881940219</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2981086096879871</v>
+        <v>-0.3240239127392728</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5343625493996947</v>
+        <v>-0.5383434687139099</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3723775128526147</v>
+        <v>-0.371955248889744</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.08561650268567741</v>
+        <v>-0.08360515808203479</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4216482027397524</v>
+        <v>-0.4237390233202299</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3238072406051815</v>
+        <v>-0.3296992645132952</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.124448290783438</v>
+        <v>-0.1331778468223288</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4261917783638312</v>
+        <v>-0.4362302822690958</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.306675827764157</v>
+        <v>-0.2957587043827732</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1287334008429519</v>
+        <v>0.09618073088731177</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1945815909921935</v>
+        <v>-0.1874241436409187</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.06820797617389479</v>
+        <v>0.0583688662174723</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3305825412930007</v>
+        <v>0.3187305555549486</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1119564450008305</v>
+        <v>-0.1197290038704042</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01214588017380724</v>
+        <v>-0.0220567544212598</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1678429969247288</v>
+        <v>0.1692863095903602</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2010558332238879</v>
+        <v>-0.1986070955076003</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.05240713320906886</v>
+        <v>-0.03440924035071972</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-4.799785524968739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.235764811887275</v>
+        <v>-2.235764811887278</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.483074209922753</v>
@@ -1297,7 +1297,7 @@
         <v>-5.88781044894793</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.02584442719201</v>
+        <v>-1.025844427192008</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.521928676127639</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.301016867703781</v>
+        <v>-2.155949914376854</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.845433140072873</v>
+        <v>-7.960130594134436</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.404222082235303</v>
+        <v>-5.630459696955429</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.527575192017681</v>
+        <v>1.422768698816755</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.215800838760796</v>
+        <v>-9.281019662150083</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.308002179320022</v>
+        <v>-4.445875264552327</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7684450544873348</v>
+        <v>1.078228758656059</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.97611265975516</v>
+        <v>-7.727890098844129</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.912639919596614</v>
+        <v>-3.944918355459631</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.769689629986374</v>
+        <v>4.791236737611968</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.686446689192416</v>
+        <v>-1.620784600890866</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.443811802286384</v>
+        <v>1.041960634332646</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.256891676483999</v>
+        <v>9.208352699637947</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.555905526245868</v>
+        <v>-2.378735862923761</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.768123027764236</v>
+        <v>2.379690947218369</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.953437406785887</v>
+        <v>6.651402795115799</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-3.108786731399047</v>
+        <v>-2.705597954003113</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9352836454801354</v>
+        <v>0.83002933662482</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2824288483521046</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1315568118039182</v>
+        <v>-0.1315568118039183</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2375535824416926</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2550887351395005</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.04444459611111872</v>
+        <v>-0.0444445961111186</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1744726111279219</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1257855116148791</v>
+        <v>-0.1174962558767045</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4187627578992673</v>
+        <v>-0.4234866067945411</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2899416173365264</v>
+        <v>-0.2925212345791638</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.05974777221247509</v>
+        <v>0.05668376759183987</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3706099999911938</v>
+        <v>-0.3710334741408158</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1710188989073555</v>
+        <v>-0.1800581682827723</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0356211514932975</v>
+        <v>0.04845543016879445</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3650848599536063</v>
+        <v>-0.3572300629664666</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1789779580420937</v>
+        <v>-0.1844597113474772</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3101310864323576</v>
+        <v>0.30802506485794</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1046540288180902</v>
+        <v>-0.09704879624279598</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09493842585877363</v>
+        <v>0.07260370192660849</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.4411649384876097</v>
+        <v>0.4303890412893334</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.07334309358526321</v>
+        <v>-0.1059536060768875</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1351735457374225</v>
+        <v>0.113363908915194</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3083453617543917</v>
+        <v>0.3528169823762708</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1587260858435874</v>
+        <v>-0.1464835207491543</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.05063104893353219</v>
+        <v>0.04344945636423878</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.831946040946199</v>
+        <v>-3.034682885097053</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.140434419631314</v>
+        <v>-7.038326960940811</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.148049117272635</v>
+        <v>-5.359922135562041</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.509236370889492</v>
+        <v>1.360911629065493</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.701023369986474</v>
+        <v>-7.671780967902405</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.90876143390443</v>
+        <v>-4.769975433888773</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1598832899267911</v>
+        <v>-0.1163388550711425</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.847476667917432</v>
+        <v>-6.793572246585187</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-4.562751792582592</v>
+        <v>-4.444451667104561</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.6894428656571799</v>
+        <v>0.6244610024627166</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.598277028055819</v>
+        <v>-3.653474957120601</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.739322731832091</v>
+        <v>-1.727421561583641</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.565569813382145</v>
+        <v>5.510956975445718</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.761501553345524</v>
+        <v>-3.663508153247477</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.139437668189806</v>
+        <v>-1.200132632803695</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.484160614603218</v>
+        <v>2.608679947504593</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.202818620566648</v>
+        <v>-4.146620373756417</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.962062353594384</v>
+        <v>-1.899852645521665</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1609725986075091</v>
+        <v>-0.1684105796467487</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.397167038586508</v>
+        <v>-0.3960700247613023</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2901053980528567</v>
+        <v>-0.300276271607919</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.06407330205395462</v>
+        <v>0.05880680982312001</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3308704950339331</v>
+        <v>-0.3272407757123807</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2050757419963943</v>
+        <v>-0.2032447003843185</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.008003350722544805</v>
+        <v>-0.004280035644069449</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3374409819038545</v>
+        <v>-0.3342203916353439</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2233389234003618</v>
+        <v>-0.2195899646088192</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.04257342670169618</v>
+        <v>0.03880913368784059</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2238576176251802</v>
+        <v>-0.2308788964261582</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1090718438960474</v>
+        <v>-0.1073031058784242</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2602978568495667</v>
+        <v>0.2621136763751922</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1753258782848202</v>
+        <v>-0.1737693364454028</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.05433245336896649</v>
+        <v>-0.05654663007256064</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1306454954992261</v>
+        <v>0.1391755362658028</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2207682140875929</v>
+        <v>-0.2192451599683198</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1038049302317448</v>
+        <v>-0.09953858213520923</v>
       </c>
     </row>
     <row r="34">
